--- a/Optimizing_Results.xlsx
+++ b/Optimizing_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttonny0326/GitHub_Project/BA_ORRA_python_Grocery_prediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11010B94-055E-6449-AE47-8BEFD104F5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E00627-D53E-5B41-8823-5FC0E1C371DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17760" xr2:uid="{83BBC5D6-F91C-2648-BCF2-341F0845A427}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Combinations</t>
   </si>
@@ -53,9 +53,6 @@
     <t>NN</t>
   </si>
   <si>
-    <t>1 BEVERAGES</t>
-  </si>
-  <si>
     <t>3 POULTRY</t>
   </si>
   <si>
@@ -75,6 +72,27 @@
   </si>
   <si>
     <t>Best_lags</t>
+  </si>
+  <si>
+    <t>layers</t>
+  </si>
+  <si>
+    <t>200, 200, 200, 200, 100</t>
+  </si>
+  <si>
+    <t>learning rate</t>
+  </si>
+  <si>
+    <t>adaptive</t>
+  </si>
+  <si>
+    <t>n_estimator</t>
+  </si>
+  <si>
+    <t>max_depth</t>
+  </si>
+  <si>
+    <t>learning_rate</t>
   </si>
 </sst>
 </file>
@@ -435,15 +453,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDADF372-484C-3E40-938F-9FD83D205210}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,10 +473,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -465,69 +487,106 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>400</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
         <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
